--- a/test-cases/Ex4.xlsx
+++ b/test-cases/Ex4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NEWERMIND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Тест кейсы swapi.co</t>
   </si>
@@ -38,40 +38,157 @@
     <t>Результат</t>
   </si>
   <si>
-    <t>Переходим по url "https://swapi.co/api/people/2/"</t>
-  </si>
-  <si>
-    <t>Значение поля "height", "mass" - целочисленного типа (int, short или byte)</t>
-  </si>
-  <si>
-    <t>Значение поля "name" - строчного типа</t>
-  </si>
-  <si>
-    <t>Значение поля "films" - массив</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В поле "url" - рабочая ссылка </t>
-  </si>
-  <si>
-    <t>Значение поля "created" - отформатировано по паттерну даты и времени</t>
-  </si>
-  <si>
-    <t>Переходим по url "https://swapi.co/api/people/89/"</t>
-  </si>
-  <si>
-    <t>HTTP 404 NOT FOUND</t>
-  </si>
-  <si>
-    <t>Открывается страница без json - файла, написано: This is not the page you are looking for.</t>
-  </si>
-  <si>
-    <t>Добавим в url "/asd" и перейдем по url "https://swapi.co/api/planets/61/asd"</t>
-  </si>
-  <si>
-    <t>Добавим параметр lang=fr и перейдем по url "https://swapi.co/api/planets/61?lang=fr"</t>
-  </si>
-  <si>
-    <t>Открывается страница "https://swapi.co/api/planets/61/?lang=fr" на английском языке</t>
+    <t>HTTP 200 OK</t>
+  </si>
+  <si>
+    <t>Ввести в строку запроса people/2/ и нажать request</t>
+  </si>
+  <si>
+    <t>mass, hair_color, skin_color, eye_color,  birth_year, gender, homeworld, films, species, vehicles, starships,</t>
+  </si>
+  <si>
+    <t>created, edited, url.</t>
+  </si>
+  <si>
+    <t>Ввести в строку запроса films/3/ и нажать request</t>
+  </si>
+  <si>
+    <t>episode_id, opening_crawl, director, producer, release_date, characters, planets, starships, vehicles, species,</t>
+  </si>
+  <si>
+    <t>Ввести в строку запроса species/2/ и нажать request</t>
+  </si>
+  <si>
+    <t>В поле вывода отобразится информация о человеке, в нашем случае - "C-3PO", с полями: name, height,</t>
+  </si>
+  <si>
+    <t>В поле вывода отобразится информация о фильме, в нашем случае - "Return of the Jedi", с полями: title,</t>
+  </si>
+  <si>
+    <t>В поле вывода отобразится информация о разновидности("раса"), в нашем случае - "Droid", с полями: name,</t>
+  </si>
+  <si>
+    <t>classification, designation, average_height, skin_colors, hair_colors, eye_colors, average_lifespan, homeworld,</t>
+  </si>
+  <si>
+    <t>language, people, films, created, edited, url.</t>
+  </si>
+  <si>
+    <t>Ввести в строку запроса planets/2/ и нажать request</t>
+  </si>
+  <si>
+    <t>В поле вывода отобразится информация о планете, в нашем случае - "Alderaan", с полями: name,</t>
+  </si>
+  <si>
+    <t>rotation_period, orbital_period, diameter, climate, gravity, terrain, surface_water, population, residents,</t>
+  </si>
+  <si>
+    <t>films, created, edited, url.</t>
+  </si>
+  <si>
+    <t>Ввести в строку запроса starships/15/ и нажать request</t>
+  </si>
+  <si>
+    <t>В поле вывода отобразится информация о звездном корабле, в нашем случае - "Executor", с полями: name,</t>
+  </si>
+  <si>
+    <t>model, manufacturer, cost_in_credits, length, max_atmosphering_speed, crew, passengers, cargo_capacity,</t>
+  </si>
+  <si>
+    <t>consumables, hyperdrive_rating, MGLT, starship_class, pilots, films, created, edited, url.</t>
+  </si>
+  <si>
+    <t>Ввести в строку запроса vehicles/14/ и нажать request</t>
+  </si>
+  <si>
+    <t>В поле вывода отобразится информация о средстве передвижения, в нашем случае - "Snowspeeder",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с полями: name, model, manufacturer, cost_in_credits, length, max_atmosphering_speed, crew, passengers, </t>
+  </si>
+  <si>
+    <t>cargo_capacity, consumables, vehicle_class, pilots, films, created, edited, url.</t>
+  </si>
+  <si>
+    <t>Ввести в строку запроса vehicles/schema и нажать request(так же можно для starships/schema и т.д.)</t>
+  </si>
+  <si>
+    <t>В поле вывода отобразится информация о типе данных, с описанием, форматом(если пристутсвует).</t>
+  </si>
+  <si>
+    <t>Пример поля created:</t>
+  </si>
+  <si>
+    <t>"type" : "string"</t>
+  </si>
+  <si>
+    <t>"format" : "date-time"</t>
+  </si>
+  <si>
+    <t>"description" : "The ISO 8601 date format of the time that this resource was created."</t>
+  </si>
+  <si>
+    <t>В поле вывода отобразится информация о людях, с общим их количеством, с полями: count, next, previous,</t>
+  </si>
+  <si>
+    <t>results.</t>
+  </si>
+  <si>
+    <t>Ввести в строку запроса people/ и нажать request(так же и для starships, vehicles и т.д.)</t>
+  </si>
+  <si>
+    <t>Ввести в строку запроса people/1/?format=wookiee и нажать request</t>
+  </si>
+  <si>
+    <t>В поле вывода отобразится информация о людях на "другом" языке</t>
+  </si>
+  <si>
+    <t>Ввести в строку запроса people/?search=Luke и нажать requset</t>
+  </si>
+  <si>
+    <t>В поле вывода отобразится информация с результатами поиска по "Luke", с полями: count, next, previous,</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>Перейдем на страницу "https://swapi.co/api/"</t>
+  </si>
+  <si>
+    <t>Открывается Api Root, в поле вывода отобразится общая информация о people, planets, films, species,</t>
+  </si>
+  <si>
+    <t>vehicles, starships.</t>
+  </si>
+  <si>
+    <t>Введем запрос OPTIONS /api/</t>
+  </si>
+  <si>
+    <t>В поле вывода отобразится иформация с полями: name, description, renders, parses.</t>
+  </si>
+  <si>
+    <t>На странице "https://swapi.co/api/" нажмем на стрелочку около GET, выберем формат запроса(json, api,</t>
+  </si>
+  <si>
+    <t>wookiee)</t>
+  </si>
+  <si>
+    <t>Откроется страница с соответсвующим ответом на запрос(json, api, wookiee)</t>
+  </si>
+  <si>
+    <t>Путем ввода в адресную строку https://swapi.co/api/planets/1/(так же для https://swapi.co/api/people/1/)</t>
+  </si>
+  <si>
+    <t>отображается информация о запросе, можно выбрать метод GET(с нужным форматом: json, api, wookiee) или</t>
+  </si>
+  <si>
+    <t>OPTIONS</t>
+  </si>
+  <si>
+    <t>Введем в строку запроса people/1/asd</t>
+  </si>
+  <si>
+    <t>404 NOT FOUND</t>
   </si>
 </sst>
 </file>
@@ -108,8 +225,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -390,17 +508,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="100.140625" customWidth="1"/>
-    <col min="4" max="4" width="100.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" customWidth="1"/>
+    <col min="4" max="4" width="98.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -424,91 +543,304 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>